--- a/data/transit-times.xlsx
+++ b/data/transit-times.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petigura/Research/K2-19_TTV+RV/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="0" windowWidth="21480" windowHeight="16760"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="transit-times" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ephem-sinukoff16" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>i_planet</t>
   </si>
@@ -88,10 +97,58 @@
     <t>Spitzer K2-19b</t>
   </si>
   <si>
-    <t>Livingston reduction Spitzer</t>
-  </si>
-  <si>
     <t>Spitzer</t>
+  </si>
+  <si>
+    <t>Livingston reduction</t>
+  </si>
+  <si>
+    <t>per1</t>
+  </si>
+  <si>
+    <t>per1_err</t>
+  </si>
+  <si>
+    <t>tc1</t>
+  </si>
+  <si>
+    <t>tc2_err</t>
+  </si>
+  <si>
+    <t>tc1_err</t>
+  </si>
+  <si>
+    <t>per2</t>
+  </si>
+  <si>
+    <t>per2_err</t>
+  </si>
+  <si>
+    <t>tc2</t>
+  </si>
+  <si>
+    <t>per3</t>
+  </si>
+  <si>
+    <t>per3_err</t>
+  </si>
+  <si>
+    <t>tc3</t>
+  </si>
+  <si>
+    <t>tc3_err</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value </t>
+  </si>
+  <si>
+    <t>Ephemerides taken from Sinukoff+16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJD-2456000 </t>
   </si>
 </sst>
 </file>
@@ -166,8 +223,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -208,7 +269,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -225,6 +286,8 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -241,10 +304,17 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -535,18 +605,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -583,7 +653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -600,7 +670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -617,7 +687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -634,7 +704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -651,7 +721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -668,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -685,7 +755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -702,7 +772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -719,7 +789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -736,7 +806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -753,7 +823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -770,7 +840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -787,7 +857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -804,7 +874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -821,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -838,7 +908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -855,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -875,7 +945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -895,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -915,7 +985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -935,7 +1005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -955,7 +1025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -969,13 +1039,13 @@
         <v>8.4500000000000005E-4</v>
       </c>
       <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -992,7 +1062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1009,7 +1079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1023,13 +1093,13 @@
         <v>6.1510000000000002E-3</v>
       </c>
       <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
         <v>23</v>
       </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1046,7 +1116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1063,7 +1133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1080,7 +1150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1097,17 +1167,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1119,13 +1184,13 @@
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1159,7 +1224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1176,7 +1241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1193,7 +1258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1213,10 +1278,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>7.9194000000000004</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>813.38369999999998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>11.90715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>817.27549999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>2.5085600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>4.0999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>808.92070000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>